--- a/tests/opt.xlsx
+++ b/tests/opt.xlsx
@@ -584,7 +584,7 @@
       </c>
       <c r="E8" s="7" t="inlineStr">
         <is>
-          <t>1/1</t>
+          <t>3/3</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -749,7 +749,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="16" customWidth="1" min="1" max="1"/>
-    <col width="24" customWidth="1" min="2" max="2"/>
+    <col width="26" customWidth="1" min="2" max="2"/>
     <col width="13" customWidth="1" min="3" max="3"/>
     <col width="11" customWidth="1" min="4" max="4"/>
     <col width="17" customWidth="1" min="5" max="5"/>
@@ -838,6 +838,82 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>demo.customers</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Some unique check name 1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>PRE_LOAD</t>
+        </is>
+      </c>
+      <c r="D3" s="10" t="inlineStr">
+        <is>
+          <t>Select 1;</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>ERROR</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>demo.customers</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Some unique check name 2</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>PRE_LOAD</t>
+        </is>
+      </c>
+      <c r="D4" s="10" t="inlineStr">
+        <is>
+          <t>Select 1;</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
